--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Xuất Nhập KHO/Xuất Kho 2023/XK_LK_200_ACT01_050123.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Xuất Nhập KHO/Xuất Kho 2023/XK_LK_200_ACT01_050123.xlsx
@@ -21,12 +21,15 @@
     <sheet name="BM.05" sheetId="7" r:id="rId7"/>
     <sheet name="BM.06" sheetId="9" r:id="rId8"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">BM.07!$A$1:$H$49</definedName>
+  </definedNames>
   <calcPr calcId="152511" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="158">
   <si>
     <t>STT</t>
   </si>
@@ -438,9 +441,6 @@
     <t>Đào Văn Thông</t>
   </si>
   <si>
-    <t>Hà Nội, Ngày 05 Tháng 01 Năm 2023</t>
-  </si>
-  <si>
     <t>VT_Fuse_60V - 550mA</t>
   </si>
   <si>
@@ -483,9 +483,6 @@
     <t>VT_Stainless Steel 2</t>
   </si>
   <si>
-    <t>VT_Cable_NTC có chống nhiễu vỏ bọc (7 mét)</t>
-  </si>
-  <si>
     <t>Giắc MX3.0mm 4 chân 2x2P</t>
   </si>
   <si>
@@ -496,6 +493,18 @@
   </si>
   <si>
     <t>Số lượng xuất dư</t>
+  </si>
+  <si>
+    <t>Cos Kim Bấm Dây Đầu Cái 3.0mm Mạ Thiếc Dây 22AWG</t>
+  </si>
+  <si>
+    <t>VT_DÂY_24AWM_2095  (4 LÕI THƯỜNG)</t>
+  </si>
+  <si>
+    <t>VT_DÂY_24AWG_2C  (2 LÕI CHỐNG NHIỄU)</t>
+  </si>
+  <si>
+    <t>Hà Nội, Ngày 07 Tháng 01 Năm 2023</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1110,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="222">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1349,6 +1358,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1945,13 +1963,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>488016</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>307040</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2666,57 +2684,57 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="118"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="119" t="s">
+      <c r="A2" s="121"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="125" t="s">
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="124"/>
+      <c r="L2" s="128" t="s">
         <v>77</v>
       </c>
-      <c r="M2" s="125"/>
+      <c r="M2" s="128"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="118"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="125" t="s">
+      <c r="A3" s="121"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="127"/>
+      <c r="L3" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="125"/>
+      <c r="M3" s="128"/>
     </row>
     <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="118"/>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="125" t="s">
+      <c r="A4" s="121"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="129"/>
+      <c r="L4" s="128" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="125"/>
+      <c r="M4" s="128"/>
     </row>
     <row r="5" spans="1:13" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
@@ -2743,29 +2761,29 @@
       <c r="A8" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
       <c r="E8" s="73" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="109" t="s">
+      <c r="G8" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109" t="s">
+      <c r="H8" s="112"/>
+      <c r="I8" s="112" t="s">
         <v>85</v>
       </c>
-      <c r="J8" s="109"/>
-      <c r="K8" s="109" t="s">
+      <c r="J8" s="112"/>
+      <c r="K8" s="112" t="s">
         <v>86</v>
       </c>
-      <c r="L8" s="109"/>
+      <c r="L8" s="112"/>
       <c r="M8" s="73" t="s">
         <v>4</v>
       </c>
@@ -2774,86 +2792,86 @@
       <c r="A9" s="74">
         <v>1</v>
       </c>
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="118" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="117"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="120"/>
       <c r="E9" s="72" t="s">
         <v>93</v>
       </c>
       <c r="F9" s="72">
         <v>985</v>
       </c>
-      <c r="G9" s="113"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="105" t="s">
+      <c r="G9" s="116"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="108" t="s">
         <v>106</v>
       </c>
-      <c r="L9" s="105"/>
+      <c r="L9" s="108"/>
       <c r="M9" s="73"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="74">
         <v>2</v>
       </c>
-      <c r="B10" s="115" t="s">
+      <c r="B10" s="118" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="117"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="120"/>
       <c r="E10" s="72" t="s">
         <v>93</v>
       </c>
       <c r="F10" s="72">
         <v>985</v>
       </c>
-      <c r="G10" s="113"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="105" t="s">
+      <c r="G10" s="116"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="108" t="s">
         <v>106</v>
       </c>
-      <c r="L10" s="105"/>
+      <c r="L10" s="108"/>
       <c r="M10" s="73"/>
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="74">
         <v>3</v>
       </c>
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="111"/>
-      <c r="D11" s="112"/>
+      <c r="C11" s="114"/>
+      <c r="D11" s="115"/>
       <c r="E11" s="72" t="s">
         <v>93</v>
       </c>
       <c r="F11" s="72">
         <v>985</v>
       </c>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="104"/>
-      <c r="K11" s="105" t="s">
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="108" t="s">
         <v>106</v>
       </c>
-      <c r="L11" s="105"/>
+      <c r="L11" s="108"/>
       <c r="M11" s="71"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="74">
         <v>4</v>
       </c>
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="106" t="s">
         <v>102</v>
       </c>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
+      <c r="C12" s="106"/>
+      <c r="D12" s="106"/>
       <c r="E12" s="72" t="s">
         <v>93</v>
       </c>
@@ -2861,58 +2879,58 @@
         <f>985*2</f>
         <v>1970</v>
       </c>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="104"/>
-      <c r="K12" s="105" t="s">
+      <c r="G12" s="107"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="108" t="s">
         <v>106</v>
       </c>
-      <c r="L12" s="105"/>
+      <c r="L12" s="108"/>
       <c r="M12" s="71"/>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="106" t="s">
+      <c r="A14" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="B14" s="107"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="106" t="s">
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="G14" s="107"/>
-      <c r="H14" s="107"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="106" t="s">
+      <c r="G14" s="110"/>
+      <c r="H14" s="110"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="108"/>
+      <c r="K14" s="110"/>
+      <c r="L14" s="110"/>
+      <c r="M14" s="111"/>
     </row>
     <row r="15" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="97" t="s">
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="97" t="s">
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="99"/>
+      <c r="K15" s="101"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="102"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
@@ -2975,25 +2993,25 @@
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="100" t="s">
+      <c r="A20" s="103" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="101"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="100" t="s">
+      <c r="B20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="103" t="s">
         <v>89</v>
       </c>
-      <c r="G20" s="101"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="100" t="s">
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="101"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="102"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="104"/>
+      <c r="M20" s="105"/>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3074,51 +3092,51 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="118"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="119" t="s">
+      <c r="A2" s="121"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="122" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="125" t="s">
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="123"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="128" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="125"/>
+      <c r="K2" s="128"/>
     </row>
     <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="118"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="125" t="s">
+      <c r="A3" s="121"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="127"/>
+      <c r="J3" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="125"/>
+      <c r="K3" s="128"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="118"/>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="125" t="s">
+      <c r="A4" s="121"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="128" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="125"/>
+      <c r="K4" s="128"/>
     </row>
     <row r="5" spans="1:11" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
@@ -3145,23 +3163,23 @@
       <c r="A8" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
       <c r="E8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="113" t="s">
+      <c r="F8" s="116" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="114"/>
-      <c r="H8" s="113" t="s">
+      <c r="G8" s="117"/>
+      <c r="H8" s="116" t="s">
         <v>86</v>
       </c>
-      <c r="I8" s="127"/>
-      <c r="J8" s="114"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="117"/>
       <c r="K8" s="24" t="s">
         <v>4</v>
       </c>
@@ -3170,46 +3188,46 @@
       <c r="A9" s="77">
         <v>1</v>
       </c>
-      <c r="B9" s="128" t="s">
+      <c r="B9" s="131" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="129"/>
-      <c r="D9" s="130"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="133"/>
       <c r="E9" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="128">
+      <c r="F9" s="131">
         <v>6</v>
       </c>
-      <c r="G9" s="130"/>
-      <c r="H9" s="128" t="s">
+      <c r="G9" s="133"/>
+      <c r="H9" s="131" t="s">
         <v>113</v>
       </c>
-      <c r="I9" s="129"/>
-      <c r="J9" s="130"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="133"/>
       <c r="K9" s="77"/>
     </row>
     <row r="10" spans="1:11" s="2" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="77">
         <v>2</v>
       </c>
-      <c r="B10" s="128" t="s">
+      <c r="B10" s="131" t="s">
         <v>116</v>
       </c>
-      <c r="C10" s="129"/>
-      <c r="D10" s="130"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="133"/>
       <c r="E10" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="128">
+      <c r="F10" s="131">
         <v>4</v>
       </c>
-      <c r="G10" s="130"/>
-      <c r="H10" s="128" t="s">
+      <c r="G10" s="133"/>
+      <c r="H10" s="131" t="s">
         <v>113</v>
       </c>
-      <c r="I10" s="129"/>
-      <c r="J10" s="130"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="133"/>
       <c r="K10" s="77" t="s">
         <v>117</v>
       </c>
@@ -3218,65 +3236,65 @@
       <c r="A11" s="77">
         <v>3</v>
       </c>
-      <c r="B11" s="128" t="s">
+      <c r="B11" s="131" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="129"/>
-      <c r="D11" s="130"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="133"/>
       <c r="E11" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="F11" s="128">
+      <c r="F11" s="131">
         <v>2</v>
       </c>
-      <c r="G11" s="130"/>
-      <c r="H11" s="128" t="s">
+      <c r="G11" s="133"/>
+      <c r="H11" s="131" t="s">
         <v>114</v>
       </c>
-      <c r="I11" s="129"/>
-      <c r="J11" s="130"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="133"/>
       <c r="K11" s="77" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="107"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="106" t="s">
+      <c r="B13" s="110"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="109" t="s">
         <v>78</v>
       </c>
-      <c r="G13" s="108"/>
-      <c r="H13" s="106" t="s">
+      <c r="G13" s="111"/>
+      <c r="H13" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="108"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="111"/>
     </row>
     <row r="14" spans="1:11" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="97" t="s">
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="99"/>
-      <c r="H14" s="97" t="s">
+      <c r="G14" s="102"/>
+      <c r="H14" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="98"/>
-      <c r="J14" s="98"/>
-      <c r="K14" s="99"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="101"/>
+      <c r="K14" s="102"/>
     </row>
     <row r="15" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
@@ -3331,23 +3349,23 @@
       <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="100" t="s">
+      <c r="A19" s="103" t="s">
         <v>95</v>
       </c>
-      <c r="B19" s="101"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="100" t="s">
+      <c r="B19" s="104"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="104"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="103" t="s">
         <v>89</v>
       </c>
-      <c r="G19" s="102"/>
-      <c r="H19" s="100" t="s">
+      <c r="G19" s="105"/>
+      <c r="H19" s="103" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="101"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="102"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="104"/>
+      <c r="K19" s="105"/>
     </row>
     <row r="20" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -3398,10 +3416,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N56"/>
+  <dimension ref="A2:N58"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3418,42 +3436,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="118"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="131" t="s">
+      <c r="A2" s="121"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="134" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="125" t="s">
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="128" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="125"/>
+      <c r="H2" s="128"/>
     </row>
     <row r="3" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="118"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="125" t="s">
+      <c r="A3" s="121"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="125"/>
+      <c r="H3" s="128"/>
     </row>
     <row r="4" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="118"/>
-      <c r="B4" s="118"/>
-      <c r="C4" s="135"/>
-      <c r="D4" s="135"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="125" t="s">
+      <c r="A4" s="121"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="128" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="125"/>
+      <c r="H4" s="128"/>
     </row>
     <row r="5" spans="1:8" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59" t="s">
@@ -3468,11 +3486,11 @@
         <v>125</v>
       </c>
       <c r="E6" s="63"/>
-      <c r="F6" s="138" t="s">
-        <v>136</v>
-      </c>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
+      <c r="F6" s="141" t="s">
+        <v>157</v>
+      </c>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
     </row>
     <row r="7" spans="1:8" s="59" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="59" t="s">
@@ -3493,7 +3511,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="88" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F8" s="78" t="s">
         <v>120</v>
@@ -3520,8 +3538,8 @@
       </c>
       <c r="E9" s="96"/>
       <c r="F9" s="87"/>
-      <c r="G9" s="141" t="s">
-        <v>153</v>
+      <c r="G9" s="144" t="s">
+        <v>151</v>
       </c>
       <c r="H9" s="68"/>
     </row>
@@ -3540,7 +3558,7 @@
       </c>
       <c r="E10" s="96"/>
       <c r="F10" s="87"/>
-      <c r="G10" s="142"/>
+      <c r="G10" s="145"/>
       <c r="H10" s="68"/>
     </row>
     <row r="11" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -3602,7 +3620,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="92" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C14" s="90" t="s">
         <v>93</v>
@@ -3638,16 +3656,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="92" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16" s="90" t="s">
         <v>93</v>
       </c>
       <c r="D16" s="89">
+        <v>2000</v>
+      </c>
+      <c r="E16" s="96">
         <v>1800</v>
-      </c>
-      <c r="E16" s="96">
-        <v>1600</v>
       </c>
       <c r="F16" s="87"/>
       <c r="G16" s="91"/>
@@ -3658,7 +3676,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="92" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C17" s="90" t="s">
         <v>93</v>
@@ -3678,7 +3696,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="92" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C18" s="90" t="s">
         <v>93</v>
@@ -3698,7 +3716,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="92" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C19" s="86" t="s">
         <v>93</v>
@@ -3716,7 +3734,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="92" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C20" s="86" t="s">
         <v>93</v>
@@ -3734,7 +3752,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="92" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C21" s="86" t="s">
         <v>93</v>
@@ -3770,7 +3788,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="92" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C23" s="86" t="s">
         <v>93</v>
@@ -3788,7 +3806,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="92" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C24" s="86" t="s">
         <v>93</v>
@@ -3824,7 +3842,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="92" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C26" s="86" t="s">
         <v>93</v>
@@ -3842,7 +3860,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="92" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C27" s="86" t="s">
         <v>93</v>
@@ -3860,7 +3878,7 @@
         <v>20</v>
       </c>
       <c r="B28" s="92" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C28" s="86" t="s">
         <v>93</v>
@@ -3880,7 +3898,7 @@
         <v>21</v>
       </c>
       <c r="B29" s="92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C29" s="86" t="s">
         <v>93</v>
@@ -3900,7 +3918,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="92" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C30" s="86" t="s">
         <v>93</v>
@@ -3918,13 +3936,13 @@
         <v>23</v>
       </c>
       <c r="B31" s="92" t="s">
-        <v>151</v>
-      </c>
-      <c r="C31" s="86" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="C31" s="99" t="s">
+        <v>152</v>
       </c>
       <c r="D31" s="89">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="E31" s="96"/>
       <c r="F31" s="87"/>
@@ -3935,105 +3953,123 @@
       <c r="A32" s="68">
         <v>24</v>
       </c>
-      <c r="B32" s="93" t="s">
+      <c r="B32" s="92" t="s">
+        <v>156</v>
+      </c>
+      <c r="C32" s="86" t="s">
         <v>152</v>
       </c>
-      <c r="C32" s="86" t="s">
-        <v>93</v>
-      </c>
       <c r="D32" s="89">
-        <v>200</v>
+        <v>1400</v>
       </c>
       <c r="E32" s="96"/>
       <c r="F32" s="87"/>
       <c r="G32" s="85"/>
       <c r="H32" s="78"/>
     </row>
-    <row r="33" spans="1:8" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="67"/>
-      <c r="B33" s="139"/>
-      <c r="C33" s="139"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="140"/>
-      <c r="F33" s="139"/>
-      <c r="G33" s="139"/>
-      <c r="H33" s="79"/>
-    </row>
-    <row r="34" spans="1:8" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="67"/>
-      <c r="B34" s="66"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="94"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="79"/>
-    </row>
-    <row r="35" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="61"/>
-      <c r="B35" s="137"/>
-      <c r="C35" s="137"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="61"/>
-      <c r="H35" s="61"/>
-    </row>
-    <row r="36" spans="1:8" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="145" t="s">
+    <row r="33" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="68">
+        <v>25</v>
+      </c>
+      <c r="B33" s="98" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="97" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="89">
+        <v>800</v>
+      </c>
+      <c r="E33" s="96">
+        <v>400</v>
+      </c>
+      <c r="F33" s="87"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="78"/>
+    </row>
+    <row r="34" spans="1:8" s="2" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="68">
+        <v>26</v>
+      </c>
+      <c r="B34" s="93" t="s">
+        <v>150</v>
+      </c>
+      <c r="C34" s="86" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="89">
+        <v>200</v>
+      </c>
+      <c r="E34" s="96"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="78"/>
+    </row>
+    <row r="35" spans="1:8" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="67"/>
+      <c r="B35" s="142"/>
+      <c r="C35" s="142"/>
+      <c r="D35" s="143"/>
+      <c r="E35" s="143"/>
+      <c r="F35" s="142"/>
+      <c r="G35" s="142"/>
+      <c r="H35" s="79"/>
+    </row>
+    <row r="36" spans="1:8" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="67"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="79"/>
+    </row>
+    <row r="37" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="61"/>
+      <c r="B37" s="140"/>
+      <c r="C37" s="140"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
+      <c r="G37" s="61"/>
+      <c r="H37" s="61"/>
+    </row>
+    <row r="38" spans="1:8" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="148" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="145"/>
-      <c r="C36" s="145" t="s">
+      <c r="B38" s="148"/>
+      <c r="C38" s="148" t="s">
         <v>134</v>
       </c>
-      <c r="D36" s="145"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="147" t="s">
+      <c r="D38" s="148"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="150" t="s">
         <v>78</v>
       </c>
-      <c r="G36" s="147"/>
-      <c r="H36" s="83" t="s">
+      <c r="G38" s="150"/>
+      <c r="H38" s="83" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="146" t="s">
+    <row r="39" spans="1:8" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="146"/>
-      <c r="C37" s="146" t="s">
+      <c r="B39" s="149"/>
+      <c r="C39" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="D37" s="146"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="146" t="s">
+      <c r="D39" s="149"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="149" t="s">
         <v>6</v>
       </c>
-      <c r="G37" s="146"/>
-      <c r="H37" s="82" t="s">
+      <c r="G39" s="149"/>
+      <c r="H39" s="82" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="62"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="62"/>
-    </row>
-    <row r="39" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="62"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
-      <c r="D39" s="62"/>
-      <c r="E39" s="62"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="64"/>
-      <c r="H39" s="62"/>
     </row>
     <row r="40" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A40" s="62"/>
@@ -4045,13 +4081,15 @@
       <c r="G40" s="64"/>
       <c r="H40" s="62"/>
     </row>
-    <row r="41" spans="1:8" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="65"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="65"/>
-      <c r="G41" s="146"/>
-      <c r="H41" s="146"/>
+    <row r="41" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="62"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="62"/>
     </row>
     <row r="42" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A42" s="62"/>
@@ -4063,78 +4101,96 @@
       <c r="G42" s="64"/>
       <c r="H42" s="62"/>
     </row>
-    <row r="43" spans="1:8" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="146" t="s">
+    <row r="43" spans="1:8" s="2" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="65"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+    </row>
+    <row r="44" spans="1:8" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="62"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="62"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="64"/>
+      <c r="H44" s="62"/>
+    </row>
+    <row r="45" spans="1:8" s="2" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="149" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="146"/>
-      <c r="C43" s="146" t="s">
+      <c r="B45" s="149"/>
+      <c r="C45" s="149" t="s">
         <v>135</v>
       </c>
-      <c r="D43" s="146"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="148" t="s">
+      <c r="D45" s="149"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="151" t="s">
         <v>89</v>
       </c>
-      <c r="G43" s="148"/>
-      <c r="H43" s="82" t="s">
+      <c r="G45" s="151"/>
+      <c r="H45" s="82" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="F45" s="144"/>
-      <c r="G45" s="144"/>
-      <c r="H45" s="144"/>
-    </row>
     <row r="46" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F47" s="147"/>
+      <c r="G47" s="147"/>
+      <c r="H47" s="147"/>
+    </row>
     <row r="48" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" spans="3:8" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="C49" s="143" t="s">
+    <row r="49" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="3:8" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="C51" s="146" t="s">
         <v>109</v>
       </c>
-      <c r="D49" s="143"/>
-      <c r="E49" s="143"/>
-      <c r="F49" s="143"/>
-      <c r="G49" s="143"/>
-      <c r="H49" s="143"/>
-    </row>
-    <row r="50" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="3:8" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="H56" s="84" t="s">
+      <c r="D51" s="146"/>
+      <c r="E51" s="146"/>
+      <c r="F51" s="146"/>
+      <c r="G51" s="146"/>
+      <c r="H51" s="146"/>
+    </row>
+    <row r="52" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="3:8" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="3:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="H58" s="84" t="s">
         <v>91</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F45:G45"/>
     <mergeCell ref="C2:F4"/>
     <mergeCell ref="A2:B4"/>
-    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B35:G35"/>
     <mergeCell ref="G9:G10"/>
   </mergeCells>
   <pageMargins left="0.59055118110236227" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="54" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="47" max="16383" man="1"/>
+    <brk id="49" max="16383" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -4162,99 +4218,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="155"/>
-      <c r="B1" s="156"/>
-      <c r="C1" s="157"/>
-      <c r="D1" s="152" t="s">
+      <c r="A1" s="158"/>
+      <c r="B1" s="159"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="155" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="131"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="125" t="s">
+      <c r="E1" s="134"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="128" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="125"/>
+      <c r="H1" s="128"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="158"/>
-      <c r="B2" s="137"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="125" t="s">
+      <c r="A2" s="161"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="137"/>
+      <c r="G2" s="128" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="125"/>
+      <c r="H2" s="128"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="160"/>
-      <c r="B3" s="161"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="125" t="s">
+      <c r="A3" s="163"/>
+      <c r="B3" s="164"/>
+      <c r="C3" s="165"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="128" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="125"/>
+      <c r="H3" s="128"/>
     </row>
     <row r="4" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="165" t="s">
+      <c r="A4" s="168" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="165"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="165"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="165"/>
-      <c r="G4" s="165"/>
-      <c r="H4" s="165"/>
+      <c r="B4" s="168"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="104" t="s">
+      <c r="A5" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="104" t="s">
+      <c r="C5" s="107"/>
+      <c r="D5" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="104" t="s">
+      <c r="E5" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="104" t="s">
+      <c r="F5" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="104"/>
-      <c r="H5" s="104" t="s">
+      <c r="G5" s="107"/>
+      <c r="H5" s="107" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="104"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
+      <c r="A6" s="107"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="107"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
       <c r="F6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="104"/>
+      <c r="H6" s="107"/>
     </row>
     <row r="7" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="69">
         <v>1</v>
       </c>
-      <c r="B7" s="150" t="s">
+      <c r="B7" s="153" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="151"/>
+      <c r="C7" s="154"/>
       <c r="D7" s="80" t="s">
         <v>122</v>
       </c>
@@ -4280,36 +4336,36 @@
       <c r="H8" s="70"/>
     </row>
     <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="152" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="149"/>
-      <c r="C9" s="149" t="s">
+      <c r="B9" s="152"/>
+      <c r="C9" s="152" t="s">
         <v>79</v>
       </c>
-      <c r="D9" s="149"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149" t="s">
+      <c r="D9" s="152"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="152" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="149"/>
+      <c r="H9" s="152"/>
     </row>
     <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="166" t="s">
+      <c r="A10" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="166"/>
-      <c r="C10" s="166" t="s">
+      <c r="B10" s="169"/>
+      <c r="C10" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="166"/>
-      <c r="E10" s="166"/>
-      <c r="F10" s="166"/>
-      <c r="G10" s="166" t="s">
+      <c r="D10" s="169"/>
+      <c r="E10" s="169"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="169" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="166"/>
+      <c r="H10" s="169"/>
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
@@ -4322,24 +4378,24 @@
       <c r="H11" s="5"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
+      <c r="G14" s="166"/>
+      <c r="H14" s="166"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="164" t="s">
+      <c r="A15" s="167" t="s">
         <v>119</v>
       </c>
-      <c r="B15" s="164"/>
-      <c r="C15" s="164" t="s">
+      <c r="B15" s="167"/>
+      <c r="C15" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="164"/>
-      <c r="E15" s="164"/>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164" t="s">
+      <c r="D15" s="167"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="167" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="164"/>
+      <c r="H15" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -4395,42 +4451,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="118"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="170" t="s">
+      <c r="A2" s="121"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="173" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="171"/>
-      <c r="E2" s="172"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="175"/>
       <c r="F2" s="32" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="118"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="175"/>
+      <c r="A3" s="121"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="178"/>
       <c r="F3" s="32" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="118"/>
-      <c r="B4" s="118"/>
-      <c r="C4" s="176"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="178"/>
+      <c r="A4" s="121"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="181"/>
       <c r="F4" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="172" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="169"/>
+      <c r="B5" s="172"/>
       <c r="F5" s="22" t="s">
         <v>45</v>
       </c>
@@ -4669,32 +4725,32 @@
       <c r="B37" s="23"/>
       <c r="C37" s="23"/>
       <c r="D37" s="23"/>
-      <c r="E37" s="179" t="s">
+      <c r="E37" s="182" t="s">
         <v>46</v>
       </c>
-      <c r="F37" s="179"/>
+      <c r="F37" s="182"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B38" s="167" t="s">
+      <c r="B38" s="170" t="s">
         <v>32</v>
       </c>
-      <c r="C38" s="167"/>
+      <c r="C38" s="170"/>
       <c r="D38" s="12"/>
-      <c r="E38" s="167" t="s">
+      <c r="E38" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="167"/>
+      <c r="F38" s="170"/>
     </row>
     <row r="39" spans="1:6" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="168" t="s">
+      <c r="B39" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="168"/>
+      <c r="C39" s="171"/>
       <c r="D39" s="17"/>
-      <c r="E39" s="168" t="s">
+      <c r="E39" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="168"/>
+      <c r="F39" s="171"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -4739,78 +4795,78 @@
   <sheetData>
     <row r="1" spans="1:12" ht="4.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="118"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="192" t="s">
+      <c r="A2" s="121"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="195" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="192"/>
-      <c r="E2" s="192"/>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="192"/>
-      <c r="J2" s="193" t="s">
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="196" t="s">
         <v>74</v>
       </c>
-      <c r="K2" s="194"/>
-      <c r="L2" s="195"/>
+      <c r="K2" s="197"/>
+      <c r="L2" s="198"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="118"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="193" t="s">
+      <c r="A3" s="121"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
+      <c r="H3" s="195"/>
+      <c r="I3" s="195"/>
+      <c r="J3" s="196" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="194"/>
-      <c r="L3" s="195"/>
+      <c r="K3" s="197"/>
+      <c r="L3" s="198"/>
     </row>
     <row r="4" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="118"/>
-      <c r="B4" s="118"/>
-      <c r="C4" s="192"/>
-      <c r="D4" s="192"/>
-      <c r="E4" s="192"/>
-      <c r="F4" s="192"/>
-      <c r="G4" s="192"/>
-      <c r="H4" s="192"/>
-      <c r="I4" s="192"/>
-      <c r="J4" s="193" t="s">
+      <c r="A4" s="121"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="195"/>
+      <c r="D4" s="195"/>
+      <c r="E4" s="195"/>
+      <c r="F4" s="195"/>
+      <c r="G4" s="195"/>
+      <c r="H4" s="195"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="196" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="194"/>
-      <c r="L4" s="195"/>
+      <c r="K4" s="197"/>
+      <c r="L4" s="198"/>
     </row>
     <row r="5" spans="1:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="191" t="s">
+      <c r="A5" s="194" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="191"/>
-      <c r="C5" s="191"/>
-      <c r="D5" s="191"/>
-      <c r="E5" s="191"/>
-      <c r="F5" s="191" t="s">
+      <c r="B5" s="194"/>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="191"/>
-      <c r="H5" s="191"/>
-      <c r="I5" s="191"/>
-      <c r="J5" s="191"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="194"/>
+      <c r="I5" s="194"/>
+      <c r="J5" s="194"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="190"/>
-      <c r="F6" s="190"/>
-      <c r="G6" s="190"/>
+      <c r="E6" s="193"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="193"/>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
       <c r="K6" s="27"/>
@@ -4902,58 +4958,58 @@
     </row>
     <row r="20" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="188" t="s">
+      <c r="A21" s="191" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="189" t="s">
+      <c r="B21" s="192" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="189" t="s">
+      <c r="C21" s="192" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="189" t="s">
+      <c r="D21" s="192" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="184" t="s">
+      <c r="E21" s="187" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="184" t="s">
+      <c r="F21" s="187" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="184"/>
-      <c r="H21" s="184" t="s">
+      <c r="G21" s="187"/>
+      <c r="H21" s="187" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="184" t="s">
+      <c r="I21" s="187" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="184" t="s">
+      <c r="J21" s="187" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="182" t="s">
+      <c r="K21" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="180" t="s">
+      <c r="L21" s="183" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="188"/>
-      <c r="B22" s="189"/>
-      <c r="C22" s="189"/>
-      <c r="D22" s="189"/>
-      <c r="E22" s="184"/>
+      <c r="A22" s="191"/>
+      <c r="B22" s="192"/>
+      <c r="C22" s="192"/>
+      <c r="D22" s="192"/>
+      <c r="E22" s="187"/>
       <c r="F22" s="37" t="s">
         <v>39</v>
       </c>
       <c r="G22" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="184"/>
-      <c r="I22" s="184"/>
-      <c r="J22" s="184"/>
-      <c r="K22" s="183"/>
-      <c r="L22" s="181"/>
+      <c r="H22" s="187"/>
+      <c r="I22" s="187"/>
+      <c r="J22" s="187"/>
+      <c r="K22" s="186"/>
+      <c r="L22" s="184"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="18"/>
@@ -4998,45 +5054,45 @@
       <c r="L25" s="20"/>
     </row>
     <row r="26" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D26" s="187" t="s">
+      <c r="D26" s="190" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="187"/>
-      <c r="F26" s="187"/>
-      <c r="G26" s="187"/>
+      <c r="E26" s="190"/>
+      <c r="F26" s="190"/>
+      <c r="G26" s="190"/>
     </row>
     <row r="27" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="167" t="s">
+      <c r="A27" s="170" t="s">
         <v>73</v>
       </c>
-      <c r="B27" s="167"/>
-      <c r="C27" s="167"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="167" t="s">
+      <c r="B27" s="170"/>
+      <c r="C27" s="170"/>
+      <c r="D27" s="170"/>
+      <c r="E27" s="170" t="s">
         <v>78</v>
       </c>
-      <c r="F27" s="167"/>
-      <c r="H27" s="167" t="s">
+      <c r="F27" s="170"/>
+      <c r="H27" s="170" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="167"/>
-      <c r="J27" s="167"/>
-      <c r="K27" s="167"/>
+      <c r="I27" s="170"/>
+      <c r="J27" s="170"/>
+      <c r="K27" s="170"/>
     </row>
     <row r="28" spans="1:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="168"/>
-      <c r="D28" s="168"/>
-      <c r="E28" s="168" t="s">
+      <c r="C28" s="171"/>
+      <c r="D28" s="171"/>
+      <c r="E28" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="F28" s="168"/>
-      <c r="I28" s="168" t="s">
+      <c r="F28" s="171"/>
+      <c r="I28" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="J28" s="168"/>
+      <c r="J28" s="171"/>
       <c r="K28" s="29"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5071,74 +5127,74 @@
     </row>
     <row r="32" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="30"/>
-      <c r="B32" s="186" t="s">
+      <c r="B32" s="189" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="186"/>
-      <c r="D32" s="186"/>
-      <c r="E32" s="186"/>
-      <c r="F32" s="186"/>
-      <c r="G32" s="186"/>
-      <c r="H32" s="186"/>
-      <c r="I32" s="186"/>
-      <c r="J32" s="186"/>
-      <c r="K32" s="186"/>
+      <c r="C32" s="189"/>
+      <c r="D32" s="189"/>
+      <c r="E32" s="189"/>
+      <c r="F32" s="189"/>
+      <c r="G32" s="189"/>
+      <c r="H32" s="189"/>
+      <c r="I32" s="189"/>
+      <c r="J32" s="189"/>
+      <c r="K32" s="189"/>
     </row>
     <row r="33" spans="1:11" s="33" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="186" t="s">
+      <c r="A33" s="189" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="186"/>
-      <c r="C33" s="186"/>
-      <c r="D33" s="186"/>
-      <c r="E33" s="186"/>
-      <c r="F33" s="186"/>
-      <c r="G33" s="186"/>
-      <c r="H33" s="186"/>
-      <c r="I33" s="186"/>
-      <c r="J33" s="186"/>
-      <c r="K33" s="186"/>
+      <c r="B33" s="189"/>
+      <c r="C33" s="189"/>
+      <c r="D33" s="189"/>
+      <c r="E33" s="189"/>
+      <c r="F33" s="189"/>
+      <c r="G33" s="189"/>
+      <c r="H33" s="189"/>
+      <c r="I33" s="189"/>
+      <c r="J33" s="189"/>
+      <c r="K33" s="189"/>
     </row>
     <row r="34" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="185" t="s">
+      <c r="A34" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="185"/>
-      <c r="C34" s="185"/>
-      <c r="D34" s="185"/>
-      <c r="E34" s="185"/>
-      <c r="F34" s="185"/>
-      <c r="G34" s="185"/>
-      <c r="H34" s="185"/>
-      <c r="I34" s="185"/>
-      <c r="J34" s="185"/>
-      <c r="K34" s="185"/>
+      <c r="B34" s="188"/>
+      <c r="C34" s="188"/>
+      <c r="D34" s="188"/>
+      <c r="E34" s="188"/>
+      <c r="F34" s="188"/>
+      <c r="G34" s="188"/>
+      <c r="H34" s="188"/>
+      <c r="I34" s="188"/>
+      <c r="J34" s="188"/>
+      <c r="K34" s="188"/>
     </row>
     <row r="35" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="185" t="s">
+      <c r="A35" s="188" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="185"/>
-      <c r="C35" s="185"/>
-      <c r="D35" s="185"/>
-      <c r="E35" s="185"/>
-      <c r="F35" s="185"/>
-      <c r="G35" s="185"/>
+      <c r="B35" s="188"/>
+      <c r="C35" s="188"/>
+      <c r="D35" s="188"/>
+      <c r="E35" s="188"/>
+      <c r="F35" s="188"/>
+      <c r="G35" s="188"/>
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
     <row r="36" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="185" t="s">
+      <c r="A36" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="185"/>
-      <c r="C36" s="185"/>
-      <c r="D36" s="185"/>
-      <c r="E36" s="185"/>
-      <c r="F36" s="185"/>
-      <c r="G36" s="185"/>
+      <c r="B36" s="188"/>
+      <c r="C36" s="188"/>
+      <c r="D36" s="188"/>
+      <c r="E36" s="188"/>
+      <c r="F36" s="188"/>
+      <c r="G36" s="188"/>
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
       <c r="J36" s="5"/>
@@ -5210,62 +5266,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="118"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="201" t="s">
+      <c r="A2" s="121"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="204" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="193" t="s">
+      <c r="D2" s="205"/>
+      <c r="E2" s="205"/>
+      <c r="F2" s="205"/>
+      <c r="G2" s="205"/>
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="196" t="s">
         <v>72</v>
       </c>
-      <c r="K2" s="195"/>
+      <c r="K2" s="198"/>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="118"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="202"/>
-      <c r="D3" s="202"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
-      <c r="J3" s="193" t="s">
+      <c r="A3" s="121"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
+      <c r="E3" s="205"/>
+      <c r="F3" s="205"/>
+      <c r="G3" s="205"/>
+      <c r="H3" s="205"/>
+      <c r="I3" s="205"/>
+      <c r="J3" s="196" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="195"/>
+      <c r="K3" s="198"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="118"/>
-      <c r="B4" s="118"/>
-      <c r="C4" s="202"/>
-      <c r="D4" s="202"/>
-      <c r="E4" s="202"/>
-      <c r="F4" s="202"/>
-      <c r="G4" s="202"/>
-      <c r="H4" s="202"/>
-      <c r="I4" s="202"/>
-      <c r="J4" s="193" t="s">
+      <c r="A4" s="121"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="205"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
+      <c r="J4" s="196" t="s">
         <v>61</v>
       </c>
-      <c r="K4" s="195"/>
+      <c r="K4" s="198"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="191" t="s">
+      <c r="A5" s="194" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="191"/>
-      <c r="C5" s="196"/>
-      <c r="D5" s="196"/>
-      <c r="E5" s="196"/>
-      <c r="F5" s="196"/>
-      <c r="G5" s="196"/>
+      <c r="B5" s="194"/>
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -5279,12 +5335,12 @@
       <c r="E6" s="12"/>
       <c r="F6" s="17"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="203" t="s">
+      <c r="H6" s="206" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="203"/>
-      <c r="J6" s="203"/>
-      <c r="K6" s="203"/>
+      <c r="I6" s="206"/>
+      <c r="J6" s="206"/>
+      <c r="K6" s="206"/>
     </row>
     <row r="7" spans="1:14" ht="60.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="s">
@@ -5314,10 +5370,10 @@
       <c r="I7" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="197" t="s">
+      <c r="J7" s="200" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="198"/>
+      <c r="K7" s="201"/>
     </row>
     <row r="8" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="41">
@@ -5331,8 +5387,8 @@
       <c r="G8" s="44"/>
       <c r="H8" s="43"/>
       <c r="I8" s="43"/>
-      <c r="J8" s="205"/>
-      <c r="K8" s="206"/>
+      <c r="J8" s="208"/>
+      <c r="K8" s="209"/>
     </row>
     <row r="9" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="41">
@@ -5346,8 +5402,8 @@
       <c r="G9" s="43"/>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
-      <c r="J9" s="205"/>
-      <c r="K9" s="206"/>
+      <c r="J9" s="208"/>
+      <c r="K9" s="209"/>
     </row>
     <row r="10" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="41">
@@ -5361,8 +5417,8 @@
       <c r="G10" s="44"/>
       <c r="H10" s="43"/>
       <c r="I10" s="43"/>
-      <c r="J10" s="207"/>
-      <c r="K10" s="208"/>
+      <c r="J10" s="210"/>
+      <c r="K10" s="211"/>
     </row>
     <row r="11" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
@@ -5376,8 +5432,8 @@
       <c r="G11" s="43"/>
       <c r="H11" s="43"/>
       <c r="I11" s="43"/>
-      <c r="J11" s="207"/>
-      <c r="K11" s="208"/>
+      <c r="J11" s="210"/>
+      <c r="K11" s="211"/>
     </row>
     <row r="12" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
@@ -5391,8 +5447,8 @@
       <c r="G12" s="43"/>
       <c r="H12" s="43"/>
       <c r="I12" s="43"/>
-      <c r="J12" s="207"/>
-      <c r="K12" s="208"/>
+      <c r="J12" s="210"/>
+      <c r="K12" s="211"/>
     </row>
     <row r="13" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
@@ -5406,14 +5462,14 @@
       <c r="G13" s="43"/>
       <c r="H13" s="43"/>
       <c r="I13" s="43"/>
-      <c r="J13" s="207"/>
-      <c r="K13" s="208"/>
+      <c r="J13" s="210"/>
+      <c r="K13" s="211"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="199" t="s">
+      <c r="A14" s="202" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="200"/>
+      <c r="B14" s="203"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
       <c r="E14" s="46"/>
@@ -5421,30 +5477,30 @@
       <c r="G14" s="46"/>
       <c r="H14" s="47"/>
       <c r="I14" s="48"/>
-      <c r="J14" s="209"/>
-      <c r="K14" s="210"/>
+      <c r="J14" s="212"/>
+      <c r="K14" s="213"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:14" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="204" t="s">
+      <c r="A16" s="207" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="204"/>
-      <c r="C16" s="204"/>
+      <c r="B16" s="207"/>
+      <c r="C16" s="207"/>
       <c r="D16" s="49"/>
-      <c r="E16" s="204" t="s">
+      <c r="E16" s="207" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="204"/>
-      <c r="G16" s="204" t="s">
+      <c r="F16" s="207"/>
+      <c r="G16" s="207" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="204"/>
-      <c r="I16" s="204" t="s">
+      <c r="H16" s="207"/>
+      <c r="I16" s="207" t="s">
         <v>59</v>
       </c>
-      <c r="J16" s="204"/>
-      <c r="K16" s="204"/>
+      <c r="J16" s="207"/>
+      <c r="K16" s="207"/>
       <c r="M16" s="50"/>
       <c r="N16" s="50"/>
     </row>
@@ -5509,48 +5565,48 @@
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="118"/>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="119" t="s">
+      <c r="A2" s="121"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="193" t="s">
+      <c r="E2" s="123"/>
+      <c r="F2" s="123"/>
+      <c r="G2" s="123"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="196" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="195"/>
+      <c r="J2" s="198"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="118"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="193" t="s">
+      <c r="A3" s="121"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="196" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="195"/>
+      <c r="J3" s="198"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="118"/>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="216"/>
-      <c r="E4" s="217"/>
-      <c r="F4" s="217"/>
-      <c r="G4" s="217"/>
-      <c r="H4" s="218"/>
-      <c r="I4" s="193" t="s">
+      <c r="A4" s="121"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="219"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="221"/>
+      <c r="I4" s="196" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="195"/>
+      <c r="J4" s="198"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -5596,11 +5652,11 @@
       <c r="A8" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="214" t="s">
+      <c r="B8" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="214"/>
-      <c r="D8" s="214"/>
+      <c r="C8" s="217"/>
+      <c r="D8" s="217"/>
       <c r="E8" s="54" t="s">
         <v>2</v>
       </c>
@@ -5610,174 +5666,174 @@
       <c r="G8" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="214" t="s">
+      <c r="H8" s="217" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="214"/>
-      <c r="J8" s="215"/>
+      <c r="I8" s="217"/>
+      <c r="J8" s="218"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="55">
         <v>1</v>
       </c>
-      <c r="B9" s="104"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="52"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="211"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="107"/>
+      <c r="J9" s="214"/>
     </row>
     <row r="10" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="55">
         <f t="shared" ref="A10:A18" si="0">+A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
+      <c r="B10" s="107"/>
+      <c r="C10" s="107"/>
+      <c r="D10" s="107"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="52"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="211"/>
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="214"/>
     </row>
     <row r="11" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="55">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="104"/>
-      <c r="D11" s="104"/>
+      <c r="B11" s="107"/>
+      <c r="C11" s="107"/>
+      <c r="D11" s="107"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="52"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="211"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="214"/>
     </row>
     <row r="12" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="55">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B12" s="104"/>
-      <c r="C12" s="104"/>
-      <c r="D12" s="104"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="107"/>
+      <c r="D12" s="107"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="52"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="211"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="214"/>
     </row>
     <row r="13" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="55">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B13" s="104"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="52"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="211"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="214"/>
     </row>
     <row r="14" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="55">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B14" s="104"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="104"/>
+      <c r="B14" s="107"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="52"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="211"/>
+      <c r="H14" s="107"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="214"/>
     </row>
     <row r="15" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="55">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104"/>
+      <c r="B15" s="107"/>
+      <c r="C15" s="107"/>
+      <c r="D15" s="107"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="52"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="211"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="214"/>
     </row>
     <row r="16" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="55">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B16" s="104"/>
-      <c r="C16" s="104"/>
-      <c r="D16" s="104"/>
+      <c r="B16" s="107"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="107"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="52"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="211"/>
+      <c r="H16" s="107"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="214"/>
     </row>
     <row r="17" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="55">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B17" s="104"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="52"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="211"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="214"/>
     </row>
     <row r="18" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="55">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B18" s="104"/>
-      <c r="C18" s="104"/>
-      <c r="D18" s="104"/>
+      <c r="B18" s="107"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="52"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="211"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="214"/>
     </row>
     <row r="19" spans="1:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="56">
         <v>11</v>
       </c>
-      <c r="B19" s="212"/>
-      <c r="C19" s="212"/>
-      <c r="D19" s="212"/>
+      <c r="B19" s="215"/>
+      <c r="C19" s="215"/>
+      <c r="D19" s="215"/>
       <c r="E19" s="57"/>
       <c r="F19" s="57"/>
       <c r="G19" s="58"/>
-      <c r="H19" s="212"/>
-      <c r="I19" s="212"/>
-      <c r="J19" s="213"/>
+      <c r="H19" s="215"/>
+      <c r="I19" s="215"/>
+      <c r="J19" s="216"/>
     </row>
     <row r="20" spans="1:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -5792,42 +5848,42 @@
       <c r="J20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="106" t="s">
+      <c r="A21" s="109" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="107"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107" t="s">
+      <c r="B21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107" t="s">
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="107"/>
-      <c r="I21" s="107"/>
-      <c r="J21" s="108"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="111"/>
     </row>
     <row r="22" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="97"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="98"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="98"/>
-      <c r="J22" s="99"/>
+      <c r="A22" s="100"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="102"/>
     </row>
     <row r="23" spans="1:10" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
@@ -5837,9 +5893,9 @@
       <c r="A24" s="7"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="98"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
@@ -5849,9 +5905,9 @@
       <c r="A25" s="7"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="98"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -5861,9 +5917,9 @@
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="10"/>
